--- a/exports/daily_reports/daily_report_2025-05-22.xlsx
+++ b/exports/daily_reports/daily_report_2025-05-22.xlsx
@@ -26516,7 +26516,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-05-22T13:46:24.152115</t>
+          <t>2025-05-22T13:50:08.012632</t>
         </is>
       </c>
     </row>

--- a/exports/daily_reports/daily_report_2025-05-22.xlsx
+++ b/exports/daily_reports/daily_report_2025-05-22.xlsx
@@ -26516,7 +26516,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-05-22T13:50:08.012632</t>
+          <t>2025-05-22T13:54:19.601883</t>
         </is>
       </c>
     </row>

--- a/exports/daily_reports/daily_report_2025-05-22.xlsx
+++ b/exports/daily_reports/daily_report_2025-05-22.xlsx
@@ -26516,7 +26516,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-05-22T13:54:19.601883</t>
+          <t>2025-05-22T14:00:13.375961</t>
         </is>
       </c>
     </row>

--- a/exports/daily_reports/daily_report_2025-05-22.xlsx
+++ b/exports/daily_reports/daily_report_2025-05-22.xlsx
@@ -26516,7 +26516,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-05-22T14:00:13.375961</t>
+          <t>2025-05-22T14:03:55.963756</t>
         </is>
       </c>
     </row>
